--- a/Weekly Document/week2/Gantt_Worksheet, Group11.xlsx
+++ b/Weekly Document/week2/Gantt_Worksheet, Group11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\Group11_Project\Weekly Document\week2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree Project\Group11_Project\Weekly Document\week2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2714BC80-88F6-4E74-923F-8A4CA28E9CA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B7053D-7394-48DE-94CF-C9AFCA454351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>Group Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -92,10 +92,6 @@
   <si>
     <t>Task 1.7: Testing and find the shortages of the project</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WP 2: Customer Manager: Zhi Zheng</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Task 2.1:Collect the functional user requirements</t>
@@ -163,10 +159,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Zhi Zheng</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Task 3.2:Back end team members write database and Spring framework</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -179,26 +171,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Zhengsheng, Xiulin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yadi, Zheng Zhi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Task 3.4 All members use some ML and IR technology to improve the competitiveness of the website</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Yadi, Zhengzhi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wu Xiulin, Zhengsheng</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>WP4: Maintenance Manager: Li Zhensheng</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -225,6 +201,26 @@
   <si>
     <t>Milestone</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WP 2: Customer Manager: Zheng Zhi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu Xiulin, Li Zhensheng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yang Yadi, Zheng Zhi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zheng Zhi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Zhensheng, Wu Xiulin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -825,6 +821,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,12 +840,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3423,54 +3419,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="62.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" customWidth="1"/>
-    <col min="3" max="18" width="3.77734375" customWidth="1"/>
-    <col min="19" max="19" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="62.75" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="3" max="18" width="3.75" customWidth="1"/>
+    <col min="19" max="19" width="10.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="79" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="79" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="80"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="75"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="14.4" thickBot="1">
-      <c r="A2" s="75"/>
-      <c r="B2" s="77"/>
+    <row r="2" spans="1:19" ht="14.5" thickBot="1">
+      <c r="A2" s="77"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3523,9 +3519,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.6" thickTop="1">
+    <row r="3" spans="1:19" ht="15" thickTop="1">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -3551,7 +3547,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
@@ -3576,7 +3572,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="18"/>
@@ -3601,7 +3597,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="23"/>
@@ -3626,7 +3622,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="14"/>
@@ -3651,7 +3647,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="30"/>
@@ -3676,7 +3672,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="30"/>
@@ -3701,7 +3697,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="14"/>
@@ -3723,7 +3719,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="36" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="17"/>
@@ -3746,10 +3742,10 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
@@ -3771,10 +3767,10 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
@@ -3796,10 +3792,10 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="37"/>
@@ -3821,10 +3817,10 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="37"/>
@@ -3846,10 +3842,10 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="14"/>
@@ -3871,10 +3867,10 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="14"/>
@@ -3896,7 +3892,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="17"/>
@@ -3919,10 +3915,10 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="14"/>
@@ -3944,10 +3940,10 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="51"/>
@@ -3969,10 +3965,10 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="52"/>
@@ -3994,10 +3990,10 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="60"/>
@@ -4019,10 +4015,10 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="14"/>
@@ -4044,7 +4040,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="36" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="17"/>
@@ -4067,10 +4063,10 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="62"/>
       <c r="D28" s="63"/>
@@ -4092,10 +4088,10 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="22"/>
@@ -4117,10 +4113,10 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="14"/>
@@ -4142,10 +4138,10 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="14"/>
@@ -4182,7 +4178,7 @@
       <c r="N32" s="69"/>
       <c r="O32" s="69"/>
       <c r="P32" s="70" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q32" s="71"/>
       <c r="R32" s="1"/>
@@ -4205,7 +4201,7 @@
       <c r="N33" s="72"/>
       <c r="O33" s="72"/>
       <c r="P33" s="70" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="73"/>
       <c r="R33" s="1"/>
